--- a/Output/Thomson_1993 Thomson 1993 OS DTIC parameters.xlsx
+++ b/Output/Thomson_1993 Thomson 1993 OS DTIC parameters.xlsx
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.88701180933812</v>
+        <v>-2.83545108599723</v>
       </c>
       <c r="C2" t="n">
-        <v>0.187647325679811</v>
+        <v>0.159160874987795</v>
       </c>
       <c r="D2" t="n">
         <v>547.081406221589</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.161475571525528</v>
+        <v>0.145673114301433</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0969665892615014</v>
+        <v>0.0977476357725525</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.30823999869546</v>
+        <v>2.25372991308615</v>
       </c>
       <c r="C2" t="n">
-        <v>0.212100236552518</v>
+        <v>0.193599458785533</v>
       </c>
       <c r="D2" t="n">
         <v>536.243453967197</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.06317174036088</v>
+        <v>-1.05166003595957</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0883723508302685</v>
+        <v>0.0926540495239974</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.16821355133828</v>
+        <v>-2.14081736529117</v>
       </c>
       <c r="C2" t="n">
-        <v>0.108395064222108</v>
+        <v>0.0953969328983439</v>
       </c>
       <c r="D2" t="n">
         <v>537.462136425849</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.82811151936182</v>
+        <v>1.80317848000473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.165729340740227</v>
+        <v>0.177904693938904</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.56149356438312</v>
+        <v>-2.53105087692342</v>
       </c>
       <c r="C2" t="n">
-        <v>0.14962558407627</v>
+        <v>0.130124689890718</v>
       </c>
       <c r="D2" t="n">
         <v>549.08258636321</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.00129002285038163</v>
+        <v>-0.00238000384600223</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0138376768307981</v>
+        <v>0.0140000910362655</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.035211518834785</v>
+        <v>0.0253321841268806</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0137431723158013</v>
+        <v>-0.0120621687812353</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0137431723158013</v>
+        <v>-0.0120621687812353</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00940251943300871</v>
+        <v>0.00955460029912358</v>
       </c>
     </row>
   </sheetData>
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0449865103456341</v>
+        <v>0.0374807504420513</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0158401672908242</v>
+        <v>-0.0159888332730207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0158401672908242</v>
+        <v>-0.0159888332730207</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00780967239126806</v>
+        <v>0.00858477289319537</v>
       </c>
     </row>
   </sheetData>
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0117494899477149</v>
+        <v>0.00910057480641112</v>
       </c>
       <c r="B2" t="n">
-        <v>0.000984596875272105</v>
+        <v>0.00299024922680052</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.000984596875272105</v>
+        <v>0.00299024922680052</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0274662143821902</v>
+        <v>0.0316500801254951</v>
       </c>
     </row>
   </sheetData>
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0223878154101648</v>
+        <v>0.0169324349191557</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00137946959787476</v>
+        <v>-0.00125060303915194</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00137946959787476</v>
+        <v>-0.00125060303915194</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000191481300073606</v>
+        <v>0.000196002549023721</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Thomson_1993 Thomson 1993 OS DTIC parameters.xlsx
+++ b/Output/Thomson_1993 Thomson 1993 OS DTIC parameters.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -375,12 +375,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.83545108599723</v>
+        <v>-2.88701180933812</v>
       </c>
       <c r="C2" t="n">
-        <v>0.159160874987795</v>
+        <v>0.187647325679811</v>
       </c>
       <c r="D2" t="n">
         <v>547.081406221589</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.145673114301433</v>
+        <v>0.161475571525528</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0977476357725525</v>
+        <v>0.0969665892615014</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -436,12 +436,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1"/>
@@ -453,12 +453,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.25372991308615</v>
+        <v>2.30823999869546</v>
       </c>
       <c r="C2" t="n">
-        <v>0.193599458785533</v>
+        <v>0.212100236552518</v>
       </c>
       <c r="D2" t="n">
         <v>536.243453967197</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.05166003595957</v>
+        <v>-1.06317174036088</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0926540495239974</v>
+        <v>0.0883723508302685</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -514,12 +514,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.14081736529117</v>
+        <v>-2.16821355133828</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0953969328983439</v>
+        <v>0.108395064222108</v>
       </c>
       <c r="D2" t="n">
         <v>537.462136425849</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.80317848000473</v>
+        <v>0.599206094165685</v>
       </c>
       <c r="C3" t="n">
-        <v>0.177904693938904</v>
+        <v>0.0902889678466502</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -575,12 +575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.53105087692342</v>
+        <v>-2.56149356438312</v>
       </c>
       <c r="C2" t="n">
-        <v>0.130124689890718</v>
+        <v>0.14962558407627</v>
       </c>
       <c r="D2" t="n">
         <v>549.08258636321</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.00238000384600223</v>
+        <v>-0.00129002285038163</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0140000910362655</v>
+        <v>0.0138376768307981</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -636,12 +636,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -684,12 +684,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0253321841268806</v>
+        <v>0.035211518834785</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0120621687812353</v>
+        <v>-0.0137431723158013</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0120621687812353</v>
+        <v>-0.0137431723158013</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00955460029912358</v>
+        <v>0.00940251943300871</v>
       </c>
     </row>
   </sheetData>
@@ -722,12 +722,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0374807504420513</v>
+        <v>0.0449865103456341</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0159888332730207</v>
+        <v>-0.0158401672908242</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0159888332730207</v>
+        <v>-0.0158401672908242</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00858477289319537</v>
+        <v>0.00780967239126806</v>
       </c>
     </row>
   </sheetData>
@@ -760,12 +760,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00910057480641112</v>
+        <v>0.0117494899477149</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00299024922680052</v>
+        <v>0.000589220943448199</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00299024922680052</v>
+        <v>0.000589220943448199</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0316500801254951</v>
+        <v>0.00815209771481344</v>
       </c>
     </row>
   </sheetData>
@@ -798,12 +798,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0169324349191557</v>
+        <v>0.0223878154101648</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00125060303915194</v>
+        <v>-0.00137946959787476</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00125060303915194</v>
+        <v>-0.00137946959787476</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000196002549023721</v>
+        <v>0.000191481300073606</v>
       </c>
     </row>
   </sheetData>
